--- a/data/trans_dic/P54_A_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir una pérdida de ingresos o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir una pérdida de ingresos o ya le ha ocurrido (tasa de respuesta: 98,12%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>9,27; 42,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,41; 4,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>13,05; 30,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,28; 6,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>13,73; 31,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,21; 3,89</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,2; 19,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,44; 2,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>18,32; 28,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,72; 8,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,73; 3,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>15,71; 22,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,56; 4,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,83; 2,41</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>5,85; 15,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>10,04; 19,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,54; 2,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>9,18; 15,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,3; 1,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>12,43; 18,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,3; 4,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,96; 3,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>15,49; 20,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,13; 6,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,49; 18,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,25; 2,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,74; 4,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18,48%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12,27; 16,71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 2,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 1,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16,44; 20,54</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 3,14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,0; 18,16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 1,66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 2,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir una pérdida de ingresos o ya le ha ocurrido (tasa de respuesta: 98,12%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39993</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8484</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>40874</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18337</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>80868</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26821</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18835; 86369</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2118; 21617</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26097; 60123</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10138</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7942; 37387</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55361; 127407</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10500</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13725; 44182</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>91596</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13632</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>154688</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23642</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21252</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>246284</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28143</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34885</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64263; 122930</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14997</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5262; 31428</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>122757; 188152</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7116; 79536</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8898; 39257</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>204204; 292052</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10754; 81283</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20137; 58253</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43286</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>72681</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12834</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>115967</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12834</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25682; 66949</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52365; 102064</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5044; 27697</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>88158; 152053</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5347; 25623</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>290765</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19457</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16103</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>325003</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2591</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28423</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>615768</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22048</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44526</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>243823; 353790</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4373; 64497</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8153; 33787</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>281536; 376229</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13499</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15944; 47222</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>547574; 698390</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6877; 79419</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>27811; 67309</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>465640</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23957</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>38220</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>593247</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28338</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>80846</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1058886</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>52295</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>119067</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>396789; 540096</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7100; 69609</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23589; 60700</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>527589; 659089</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11289; 80568</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>57177; 110585</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>966318; 1170002</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23594; 115187</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>90179; 154133</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>